--- a/共有用フォルダー/ガントチャート/そばうどん_ガントチャート.xlsx
+++ b/共有用フォルダー/ガントチャート/そばうどん_ガントチャート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0E6AD-4DB4-4A83-B91A-416D4C4AC46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E2FA8E-835A-42CB-94EA-33BC5537487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>このワークシートでプロジェクトのスケジュール​​を作成します。
 セル B1 には、このプロジェクトのタイトルを入力します。
@@ -117,12 +117,6 @@
 この行の上に新しい行を挿入して、プロジェクトのスケジュールの作成を続けます。</t>
   </si>
   <si>
-    <t>会社名</t>
-  </si>
-  <si>
-    <t>プロジェクト主任</t>
-  </si>
-  <si>
     <t>この行の上に新しい行を挿入する</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>開始</t>
-  </si>
-  <si>
-    <t>日付</t>
   </si>
   <si>
     <t>終了</t>
@@ -406,20 +397,11 @@
     <t>profile.jsp</t>
   </si>
   <si>
-    <t>login.js</t>
-  </si>
-  <si>
     <t>new.js</t>
     <phoneticPr fontId="29"/>
   </si>
   <si>
-    <t>profile.js</t>
-  </si>
-  <si>
     <t>login.css</t>
-  </si>
-  <si>
-    <t>title.css</t>
   </si>
   <si>
     <t>SlideServlet.java</t>
@@ -451,6 +433,26 @@
   </si>
   <si>
     <t>そばうどん</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Servlet</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>time.js</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>title.css</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Graph.java</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>ManageSlide.java</t>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -1274,7 +1276,7 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1320,9 +1322,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,23 +1533,23 @@
     <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2159,11 +2158,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL64"/>
+  <dimension ref="A1:BL65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2186,617 +2185,613 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="31" t="s">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>25</v>
+      <c r="B2" s="12"/>
+      <c r="I2" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
-        <f ca="1">TODAY()</f>
-        <v>45096</v>
-      </c>
-      <c r="F3" s="98"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
+        <f>DATE(2023,6,15)</f>
+        <v>45092</v>
+      </c>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="94"/>
+      <c r="C4" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="97"/>
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
-        <f ca="1">I5</f>
+      <c r="I4" s="92">
+        <f>I5</f>
+        <v>45089</v>
+      </c>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
+        <f>P5</f>
         <v>45096</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
-        <f ca="1">P5</f>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
+        <f>W5</f>
         <v>45103</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
-        <f ca="1">W5</f>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
+        <f>AD5</f>
         <v>45110</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
-        <f ca="1">AD5</f>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
+        <f>AK5</f>
         <v>45117</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
-        <f ca="1">AK5</f>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
+        <f>AR5</f>
         <v>45124</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
-        <f ca="1">AR5</f>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
+        <f>AY5</f>
         <v>45131</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
-        <f ca="1">AY5</f>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
+        <f>BF5</f>
         <v>45138</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
-        <f ca="1">BF5</f>
-        <v>45145</v>
-      </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="82">
-        <f ca="1">プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="I5" s="81">
+        <f>プロジェクトの開始-WEEKDAY(プロジェクトの開始,1)+2+7*(週表示-1)</f>
+        <v>45089</v>
+      </c>
+      <c r="J5" s="82">
+        <f>I5+1</f>
+        <v>45090</v>
+      </c>
+      <c r="K5" s="82">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>45091</v>
+      </c>
+      <c r="L5" s="82">
+        <f t="shared" si="0"/>
+        <v>45092</v>
+      </c>
+      <c r="M5" s="82">
+        <f t="shared" si="0"/>
+        <v>45093</v>
+      </c>
+      <c r="N5" s="82">
+        <f t="shared" si="0"/>
+        <v>45094</v>
+      </c>
+      <c r="O5" s="83">
+        <f t="shared" si="0"/>
+        <v>45095</v>
+      </c>
+      <c r="P5" s="81">
+        <f>O5+1</f>
         <v>45096</v>
       </c>
-      <c r="J5" s="83">
-        <f ca="1">I5+1</f>
+      <c r="Q5" s="82">
+        <f>P5+1</f>
         <v>45097</v>
       </c>
-      <c r="K5" s="83">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="R5" s="82">
+        <f t="shared" si="0"/>
         <v>45098</v>
       </c>
-      <c r="L5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S5" s="82">
+        <f t="shared" si="0"/>
         <v>45099</v>
       </c>
-      <c r="M5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="T5" s="82">
+        <f t="shared" si="0"/>
         <v>45100</v>
       </c>
-      <c r="N5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="U5" s="82">
+        <f t="shared" si="0"/>
         <v>45101</v>
       </c>
-      <c r="O5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="V5" s="83">
+        <f t="shared" si="0"/>
         <v>45102</v>
       </c>
-      <c r="P5" s="82">
-        <f ca="1">O5+1</f>
+      <c r="W5" s="81">
+        <f>V5+1</f>
         <v>45103</v>
       </c>
-      <c r="Q5" s="83">
-        <f ca="1">P5+1</f>
+      <c r="X5" s="82">
+        <f>W5+1</f>
         <v>45104</v>
       </c>
-      <c r="R5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Y5" s="82">
+        <f t="shared" si="0"/>
         <v>45105</v>
       </c>
-      <c r="S5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="Z5" s="82">
+        <f t="shared" si="0"/>
         <v>45106</v>
       </c>
-      <c r="T5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AA5" s="82">
+        <f t="shared" si="0"/>
         <v>45107</v>
       </c>
-      <c r="U5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AB5" s="82">
+        <f t="shared" si="0"/>
         <v>45108</v>
       </c>
-      <c r="V5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AC5" s="83">
+        <f t="shared" si="0"/>
         <v>45109</v>
       </c>
-      <c r="W5" s="82">
-        <f ca="1">V5+1</f>
+      <c r="AD5" s="81">
+        <f>AC5+1</f>
         <v>45110</v>
       </c>
-      <c r="X5" s="83">
-        <f ca="1">W5+1</f>
+      <c r="AE5" s="82">
+        <f>AD5+1</f>
         <v>45111</v>
       </c>
-      <c r="Y5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AF5" s="82">
+        <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="Z5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="82">
+        <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="AA5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="82">
+        <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="AB5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="82">
+        <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="AC5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="83">
+        <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="AD5" s="82">
-        <f ca="1">AC5+1</f>
+      <c r="AK5" s="81">
+        <f>AJ5+1</f>
         <v>45117</v>
       </c>
-      <c r="AE5" s="83">
-        <f ca="1">AD5+1</f>
+      <c r="AL5" s="82">
+        <f>AK5+1</f>
         <v>45118</v>
       </c>
-      <c r="AF5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="82">
+        <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="AG5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="82">
+        <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="AH5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="82">
+        <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="AI5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="82">
+        <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="AJ5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="83">
+        <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="AK5" s="82">
-        <f ca="1">AJ5+1</f>
+      <c r="AR5" s="81">
+        <f>AQ5+1</f>
         <v>45124</v>
       </c>
-      <c r="AL5" s="83">
-        <f ca="1">AK5+1</f>
+      <c r="AS5" s="82">
+        <f>AR5+1</f>
         <v>45125</v>
       </c>
-      <c r="AM5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="82">
+        <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="AN5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="82">
+        <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="AO5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="82">
+        <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="AP5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="82">
+        <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="AQ5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="83">
+        <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="AR5" s="82">
-        <f ca="1">AQ5+1</f>
+      <c r="AY5" s="81">
+        <f>AX5+1</f>
         <v>45131</v>
       </c>
-      <c r="AS5" s="83">
-        <f ca="1">AR5+1</f>
+      <c r="AZ5" s="82">
+        <f>AY5+1</f>
         <v>45132</v>
       </c>
-      <c r="AT5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="82">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45133</v>
       </c>
-      <c r="AU5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="82">
+        <f t="shared" si="1"/>
         <v>45134</v>
       </c>
-      <c r="AV5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="82">
+        <f t="shared" si="1"/>
         <v>45135</v>
       </c>
-      <c r="AW5" s="83">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="82">
+        <f t="shared" si="1"/>
         <v>45136</v>
       </c>
-      <c r="AX5" s="84">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="83">
+        <f t="shared" si="1"/>
         <v>45137</v>
       </c>
-      <c r="AY5" s="82">
-        <f ca="1">AX5+1</f>
+      <c r="BF5" s="81">
+        <f>BE5+1</f>
         <v>45138</v>
       </c>
-      <c r="AZ5" s="83">
-        <f ca="1">AY5+1</f>
+      <c r="BG5" s="82">
+        <f>BF5+1</f>
         <v>45139</v>
       </c>
-      <c r="BA5" s="83">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
+      <c r="BH5" s="82">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45140</v>
       </c>
-      <c r="BB5" s="83">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BI5" s="82">
+        <f t="shared" si="2"/>
         <v>45141</v>
       </c>
-      <c r="BC5" s="83">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BJ5" s="82">
+        <f t="shared" si="2"/>
         <v>45142</v>
       </c>
-      <c r="BD5" s="83">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BK5" s="82">
+        <f t="shared" si="2"/>
         <v>45143</v>
       </c>
-      <c r="BE5" s="84">
-        <f t="shared" ca="1" si="1"/>
+      <c r="BL5" s="83">
+        <f t="shared" si="2"/>
         <v>45144</v>
-      </c>
-      <c r="BF5" s="82">
-        <f ca="1">BE5+1</f>
-        <v>45145</v>
-      </c>
-      <c r="BG5" s="83">
-        <f ca="1">BF5+1</f>
-        <v>45146</v>
-      </c>
-      <c r="BH5" s="83">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45147</v>
-      </c>
-      <c r="BI5" s="83">
-        <f t="shared" ca="1" si="2"/>
-        <v>45148</v>
-      </c>
-      <c r="BJ5" s="83">
-        <f t="shared" ca="1" si="2"/>
-        <v>45149</v>
-      </c>
-      <c r="BK5" s="83">
-        <f t="shared" ca="1" si="2"/>
-        <v>45150</v>
-      </c>
-      <c r="BL5" s="84">
-        <f t="shared" ca="1" si="2"/>
-        <v>45151</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="35" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
+      <c r="I6" s="34" t="str">
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
         <v>月</v>
       </c>
-      <c r="J6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="J6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="K6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="L6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="L6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="M6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="N6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="N6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="O6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="O6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="P6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="P6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="Q6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Q6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="R6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="R6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="S6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="S6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="T6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="T6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="U6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="U6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="V6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="V6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="W6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="W6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="X6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="X6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="Y6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Y6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="Z6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="Z6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AA6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AA6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AB6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AB6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AC6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AC6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AD6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AD6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AE6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AE6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AF6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AG6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AG6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AH6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AH6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>金</v>
       </c>
-      <c r="AI6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AI6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>土</v>
       </c>
-      <c r="AJ6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AJ6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
-      <c r="AK6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AK6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>月</v>
       </c>
-      <c r="AL6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AL6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>火</v>
       </c>
-      <c r="AM6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AM6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>水</v>
       </c>
-      <c r="AN6" s="35" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN6" s="34" t="str">
+        <f t="shared" si="3"/>
         <v>木</v>
       </c>
-      <c r="AO6" s="35" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
+      <c r="AO6" s="34" t="str">
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
         <v>金</v>
       </c>
-      <c r="AP6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AP6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AQ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AQ6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AR6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AR6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="AS6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AS6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="AT6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AT6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="AU6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AU6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="AV6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AV6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="AW6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AW6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="AX6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AX6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AY6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AY6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="AZ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AZ6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BA6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BA6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BB6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BB6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BC6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BC6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BD6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BD6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BE6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BE6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="BF6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BF6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>月</v>
       </c>
-      <c r="BG6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BG6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>火</v>
       </c>
-      <c r="BH6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BH6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>水</v>
       </c>
-      <c r="BI6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BI6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>木</v>
       </c>
-      <c r="BJ6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BJ6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>金</v>
       </c>
-      <c r="BK6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BK6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>土</v>
       </c>
-      <c r="BL6" s="35" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BL6" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
     </row>
@@ -2871,16 +2866,16 @@
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>39</v>
+      <c r="B8" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="str">
-        <f t="shared" ref="H8:H61" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+      <c r="D8" s="36"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="str">
+        <f t="shared" ref="H8:H62" si="5">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="5"/>
@@ -2944,27 +2939,26 @@
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>61</v>
+      <c r="B9" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="70">
-        <f ca="1">プロジェクトの開始</f>
+        <v>92</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1</v>
+      </c>
+      <c r="E9" s="69">
         <v>45096</v>
       </c>
-      <c r="F9" s="70">
-        <f ca="1">E9+3</f>
-        <v>45099</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="F9" s="69">
+        <f>E9+7</f>
+        <v>45103</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -3027,27 +3021,25 @@
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>65</v>
+      <c r="B10" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="39">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
-      </c>
-      <c r="F10" s="70">
-        <f ca="1">E10+2</f>
-        <v>45098</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="69">
+        <v>45092</v>
+      </c>
+      <c r="F10" s="69">
+        <v>45093</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -3108,27 +3100,26 @@
     </row>
     <row r="11" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
-      <c r="B11" s="22" t="s">
-        <v>67</v>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="39">
+        <v>103</v>
+      </c>
+      <c r="D11" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="70">
-        <f ca="1">プロジェクトの開始</f>
-        <v>45096</v>
-      </c>
-      <c r="F11" s="70">
-        <f ca="1">E11+4</f>
-        <v>45100</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="E11" s="69">
+        <v>45090</v>
+      </c>
+      <c r="F11" s="69">
+        <f t="shared" ref="F11:F13" si="6">E11+0</f>
+        <v>45090</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3189,27 +3180,26 @@
     </row>
     <row r="12" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="22" t="s">
-        <v>54</v>
+      <c r="B12" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="70">
-        <f ca="1">プロジェクトの開始</f>
+        <v>104</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="69">
         <v>45096</v>
       </c>
-      <c r="F12" s="70">
-        <f ca="1">E12+5</f>
-        <v>45101</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="F12" s="69">
+        <f t="shared" si="6"/>
+        <v>45096</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -3270,19 +3260,24 @@
     </row>
     <row r="13" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
-      <c r="B13" s="22" t="s">
-        <v>102</v>
+      <c r="B13" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="39">
-        <v>0</v>
-      </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1</v>
+      </c>
+      <c r="E13" s="69">
+        <v>45090</v>
+      </c>
+      <c r="F13" s="69">
+        <f t="shared" si="6"/>
+        <v>45090</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3342,27 +3337,26 @@
     </row>
     <row r="14" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
-      <c r="B14" s="22" t="s">
-        <v>56</v>
+      <c r="B14" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="70">
-        <f ca="1">E10+1</f>
+        <v>95</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="69">
         <v>45097</v>
       </c>
-      <c r="F14" s="70">
-        <f ca="1">E14+2</f>
-        <v>45099</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="F14" s="69">
+        <f>E14+7</f>
+        <v>45104</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -3422,21 +3416,25 @@
       <c r="BL14" s="5"/>
     </row>
     <row r="15" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="69">
+        <v>45097</v>
+      </c>
+      <c r="F15" s="69">
+        <f>E15+7</f>
+        <v>45104</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3495,27 +3493,25 @@
       <c r="BL15" s="5"/>
     </row>
     <row r="16" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="73">
-        <f ca="1">E14-5</f>
-        <v>45092</v>
-      </c>
-      <c r="F16" s="73">
-        <f ca="1">E16+6</f>
-        <v>45098</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
+      <c r="E16" s="69">
+        <v>45097</v>
+      </c>
+      <c r="F16" s="69">
+        <f>E16+7</f>
+        <v>45104</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3574,26 +3570,20 @@
       <c r="BL16" s="5"/>
     </row>
     <row r="17" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="42">
-        <v>1</v>
-      </c>
-      <c r="E17" s="73">
-        <f ca="1">E16+1</f>
-        <v>45093</v>
-      </c>
-      <c r="F17" s="73">
-        <f ca="1">E17+5</f>
-        <v>45098</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3607,8 +3597,8 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -3653,26 +3643,27 @@
       <c r="BL17" s="5"/>
     </row>
     <row r="18" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="73">
-        <f ca="1">E17</f>
-        <v>45093</v>
-      </c>
-      <c r="F18" s="73">
-        <f ca="1">E18+3</f>
+      <c r="A18" s="9"/>
+      <c r="B18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="41">
+        <v>1</v>
+      </c>
+      <c r="E18" s="72">
+        <v>45090</v>
+      </c>
+      <c r="F18" s="72">
+        <f>E18+6</f>
         <v>45096</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3733,25 +3724,27 @@
     </row>
     <row r="19" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
-      <c r="B19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="E19" s="73">
-        <f ca="1">E18+4</f>
-        <v>45097</v>
-      </c>
-      <c r="F19" s="73">
-        <f ca="1">E19+4</f>
-        <v>45101</v>
-      </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="B19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="41">
+        <v>1</v>
+      </c>
+      <c r="E19" s="72">
+        <f>E18+1</f>
+        <v>45091</v>
+      </c>
+      <c r="F19" s="72">
+        <f>E19+5</f>
+        <v>45096</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37">
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3765,11 +3758,11 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="6"/>
+      <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
@@ -3812,25 +3805,27 @@
     </row>
     <row r="20" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
-      <c r="B20" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="42">
-        <v>0</v>
-      </c>
-      <c r="E20" s="73">
-        <f ca="1">E19</f>
-        <v>45097</v>
-      </c>
-      <c r="F20" s="73">
-        <f t="shared" ref="F20:F22" ca="1" si="6">E20+2</f>
-        <v>45099</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+      <c r="B20" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1</v>
+      </c>
+      <c r="E20" s="72">
+        <f>E19</f>
+        <v>45091</v>
+      </c>
+      <c r="F20" s="72">
+        <f>E20+3</f>
+        <v>45094</v>
+      </c>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3891,23 +3886,28 @@
     </row>
     <row r="21" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="73">
-        <f ca="1">E17</f>
-        <v>45093</v>
-      </c>
-      <c r="F21" s="73">
-        <f ca="1">E21+2</f>
+      <c r="B21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="72">
+        <f>E20+4</f>
         <v>45095</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
+      <c r="F21" s="72">
+        <f>E21+4</f>
+        <v>45099</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3924,7 +3924,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
+      <c r="Y21" s="6"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -3967,23 +3967,28 @@
     </row>
     <row r="22" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="73">
-        <f ca="1">E21</f>
-        <v>45093</v>
-      </c>
-      <c r="F22" s="73">
-        <f t="shared" ca="1" si="6"/>
+      <c r="B22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="72">
+        <f>E21</f>
         <v>45095</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
+      <c r="F22" s="72">
+        <f>E22+3</f>
+        <v>45098</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -4043,23 +4048,25 @@
     </row>
     <row r="23" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="73">
-        <f ca="1">E17</f>
-        <v>45093</v>
-      </c>
-      <c r="F23" s="73">
-        <f ca="1">E23+3</f>
-        <v>45096</v>
-      </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
+      <c r="B23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="72">
+        <f>E19</f>
+        <v>45091</v>
+      </c>
+      <c r="F23" s="72">
+        <f>E23+6</f>
+        <v>45097</v>
+      </c>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -4119,23 +4126,25 @@
     </row>
     <row r="24" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="73">
-        <f ca="1">E18+4</f>
+      <c r="B24" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="72">
+        <f>E23</f>
+        <v>45091</v>
+      </c>
+      <c r="F24" s="72">
+        <f>E24+6</f>
         <v>45097</v>
       </c>
-      <c r="F24" s="73">
-        <f ca="1">E24+3</f>
-        <v>45100</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -4195,23 +4204,25 @@
     </row>
     <row r="25" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="42">
+      <c r="B25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="41">
         <v>1</v>
       </c>
-      <c r="E25" s="73">
-        <f t="shared" ref="E25:E27" ca="1" si="7">E19</f>
-        <v>45097</v>
-      </c>
-      <c r="F25" s="73">
-        <f t="shared" ref="F25:F26" ca="1" si="8">E25+3</f>
-        <v>45100</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="72">
+        <f>E19</f>
+        <v>45091</v>
+      </c>
+      <c r="F25" s="72">
+        <f>E25+7</f>
+        <v>45098</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -4271,23 +4282,25 @@
     </row>
     <row r="26" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="42">
-        <v>0</v>
-      </c>
-      <c r="E26" s="73">
-        <f t="shared" ca="1" si="7"/>
+      <c r="B26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="72">
+        <f>F24</f>
         <v>45097</v>
       </c>
-      <c r="F26" s="73">
-        <f t="shared" ca="1" si="8"/>
-        <v>45100</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="F26" s="72">
+        <f>E26+2</f>
+        <v>45099</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -4347,23 +4360,25 @@
     </row>
     <row r="27" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
-      <c r="B27" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="E27" s="73">
-        <f t="shared" ca="1" si="7"/>
-        <v>45093</v>
-      </c>
-      <c r="F27" s="73">
-        <f ca="1">E27+6</f>
+      <c r="B27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1</v>
+      </c>
+      <c r="E27" s="72">
+        <f>E26</f>
+        <v>45097</v>
+      </c>
+      <c r="F27" s="72">
+        <f>F26</f>
         <v>45099</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -4423,17 +4438,25 @@
     </row>
     <row r="28" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="B28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="41">
+        <v>1</v>
+      </c>
+      <c r="E28" s="72">
+        <f>E23</f>
+        <v>45091</v>
+      </c>
+      <c r="F28" s="72">
+        <f>E28+6</f>
+        <v>45097</v>
+      </c>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4492,21 +4515,26 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="41">
+        <v>1</v>
+      </c>
+      <c r="E29" s="72">
+        <f>E28</f>
+        <v>45091</v>
+      </c>
+      <c r="F29" s="72">
+        <f>E29+6</f>
+        <v>45097</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4565,28 +4593,20 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="76">
-        <f ca="1">E9+M2223</f>
-        <v>45096</v>
-      </c>
-      <c r="F30" s="76">
-        <f ca="1">E30+5</f>
-        <v>45101</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="A30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4647,27 +4667,25 @@
     </row>
     <row r="31" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
-      <c r="B31" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="76">
-        <f ca="1">E30+M2323</f>
-        <v>45096</v>
-      </c>
-      <c r="F31" s="76">
-        <f ca="1">E31+4</f>
+      <c r="B31" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1</v>
+      </c>
+      <c r="E31" s="75">
+        <v>45092</v>
+      </c>
+      <c r="F31" s="75">
         <v>45100</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4728,27 +4746,25 @@
     </row>
     <row r="32" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
-      <c r="B32" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="E32" s="76">
-        <f ca="1">E31+M253</f>
-        <v>45096</v>
-      </c>
-      <c r="F32" s="76">
-        <f ca="1">E32+5</f>
-        <v>45101</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+      <c r="B32" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="44">
+        <v>1</v>
+      </c>
+      <c r="E32" s="75">
+        <v>45092</v>
+      </c>
+      <c r="F32" s="75">
+        <v>45100</v>
+      </c>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4809,27 +4825,26 @@
     </row>
     <row r="33" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
-      <c r="B33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="45">
-        <v>0.6</v>
-      </c>
-      <c r="E33" s="76">
-        <f ca="1">F32+1</f>
-        <v>45102</v>
-      </c>
-      <c r="F33" s="76">
-        <f ca="1">E33+4</f>
-        <v>45106</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="B33" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="44">
+        <v>1</v>
+      </c>
+      <c r="E33" s="75">
+        <f>E32+M254</f>
+        <v>45092</v>
+      </c>
+      <c r="F33" s="75">
+        <v>45099</v>
+      </c>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37">
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4890,27 +4905,25 @@
     </row>
     <row r="34" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
-      <c r="B34" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="76">
-        <f ca="1">E30</f>
-        <v>45096</v>
-      </c>
-      <c r="F34" s="76">
-        <f ca="1">E34+4</f>
-        <v>45100</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="44">
+        <v>1</v>
+      </c>
+      <c r="E34" s="75">
+        <v>45095</v>
+      </c>
+      <c r="F34" s="75">
+        <v>45104</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37">
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4971,19 +4984,27 @@
     </row>
     <row r="35" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
-      <c r="B35" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="45">
-        <v>0</v>
-      </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1</v>
+      </c>
+      <c r="E35" s="75">
+        <v>45100</v>
+      </c>
+      <c r="F35" s="75">
+        <f>E35+4</f>
+        <v>45104</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5043,25 +5064,19 @@
     </row>
     <row r="36" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
-      <c r="B36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="45">
-        <v>0</v>
-      </c>
-      <c r="E36" s="76">
-        <f ca="1">E32</f>
-        <v>45096</v>
-      </c>
-      <c r="F36" s="76">
-        <f ca="1">E36+4</f>
-        <v>45100</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -5120,21 +5135,24 @@
       <c r="BL36" s="5"/>
     </row>
     <row r="37" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="44">
+        <v>1</v>
+      </c>
+      <c r="E37" s="75">
+        <v>45101</v>
+      </c>
+      <c r="F37" s="75">
+        <v>45104</v>
+      </c>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5193,26 +5211,20 @@
       <c r="BL37" s="5"/>
     </row>
     <row r="38" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="48">
-        <v>0.3</v>
-      </c>
-      <c r="E38" s="79">
-        <v>45092</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="e">
+      <c r="A38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5273,25 +5285,25 @@
     </row>
     <row r="39" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
-      <c r="B39" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38" t="e">
+      <c r="B39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1</v>
+      </c>
+      <c r="E39" s="78">
+        <v>45092</v>
+      </c>
+      <c r="F39" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>13</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -5352,25 +5364,25 @@
     </row>
     <row r="40" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
-      <c r="B40" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="48">
-        <v>0.2</v>
-      </c>
-      <c r="E40" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="e">
+      <c r="B40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="47">
+        <v>1</v>
+      </c>
+      <c r="E40" s="78">
+        <v>45096</v>
+      </c>
+      <c r="F40" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5431,25 +5443,25 @@
     </row>
     <row r="41" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
-      <c r="B41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="E41" s="79">
-        <v>45092</v>
-      </c>
-      <c r="F41" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38" t="e">
+      <c r="B41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="47">
+        <v>1</v>
+      </c>
+      <c r="E41" s="78">
+        <v>45096</v>
+      </c>
+      <c r="F41" s="78">
+        <v>45105</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5510,25 +5522,25 @@
     </row>
     <row r="42" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
-      <c r="B42" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="48">
+      <c r="B42" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="47">
         <v>1</v>
       </c>
-      <c r="E42" s="79">
+      <c r="E42" s="78">
         <v>45092</v>
       </c>
-      <c r="F42" s="79">
-        <v>45092</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38">
+      <c r="F42" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -5589,23 +5601,26 @@
     </row>
     <row r="43" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
-      <c r="B43" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="79">
-        <v>45093</v>
-      </c>
-      <c r="F43" s="79">
-        <v>45096</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="B43" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+      <c r="E43" s="78">
+        <v>45092</v>
+      </c>
+      <c r="F43" s="78">
+        <v>45092</v>
+      </c>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5665,23 +5680,23 @@
     </row>
     <row r="44" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
-      <c r="B44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="E44" s="79">
+      <c r="B44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="47">
+        <v>1</v>
+      </c>
+      <c r="E44" s="78">
         <v>45093</v>
       </c>
-      <c r="F44" s="79">
-        <v>45096</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="F44" s="78">
+        <v>45098</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5741,23 +5756,23 @@
     </row>
     <row r="45" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
-      <c r="B45" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="48">
-        <v>0.4</v>
-      </c>
-      <c r="E45" s="79">
+      <c r="B45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="47">
+        <v>1</v>
+      </c>
+      <c r="E45" s="78">
         <v>45093</v>
       </c>
-      <c r="F45" s="79">
-        <v>45096</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="F45" s="78">
+        <v>45098</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -5817,17 +5832,23 @@
     </row>
     <row r="46" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
-      <c r="B46" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="B46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="47">
+        <v>1</v>
+      </c>
+      <c r="E46" s="78">
+        <v>45094</v>
+      </c>
+      <c r="F46" s="78">
+        <v>45098</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -5887,17 +5908,23 @@
     </row>
     <row r="47" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
-      <c r="B47" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="B47" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="78">
+        <v>45098</v>
+      </c>
+      <c r="F47" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -5957,17 +5984,23 @@
     </row>
     <row r="48" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
-      <c r="B48" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="B48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="47">
+        <v>1</v>
+      </c>
+      <c r="E48" s="78">
+        <v>45098</v>
+      </c>
+      <c r="F48" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -6027,17 +6060,23 @@
     </row>
     <row r="49" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
-      <c r="B49" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="B49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="47">
+        <v>1</v>
+      </c>
+      <c r="E49" s="78">
+        <v>45098</v>
+      </c>
+      <c r="F49" s="78">
+        <v>45104</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6097,17 +6136,23 @@
     </row>
     <row r="50" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
-      <c r="B50" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="B50" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="47">
+        <v>1</v>
+      </c>
+      <c r="E50" s="78">
+        <v>45098</v>
+      </c>
+      <c r="F50" s="78">
+        <v>45106</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6166,21 +6211,20 @@
       <c r="BL50" s="5"/>
     </row>
     <row r="51" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A51" s="8"/>
+      <c r="B51" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="47"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78">
+        <v>45105</v>
+      </c>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6239,24 +6283,21 @@
       <c r="BL51" s="5"/>
     </row>
     <row r="52" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="E52" s="91">
-        <v>45092</v>
-      </c>
-      <c r="F52" s="91">
-        <v>45099</v>
-      </c>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="A52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -6316,23 +6357,23 @@
     </row>
     <row r="53" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="90">
-        <v>0.2</v>
-      </c>
-      <c r="E53" s="91">
+      <c r="B53" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="89">
+        <v>1</v>
+      </c>
+      <c r="E53" s="90">
         <v>45092</v>
       </c>
-      <c r="F53" s="91">
-        <v>45099</v>
-      </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="F53" s="90">
+        <v>45104</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -6392,23 +6433,23 @@
     </row>
     <row r="54" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="90">
+      <c r="B54" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="89">
         <v>1</v>
       </c>
-      <c r="E54" s="91">
+      <c r="E54" s="90">
         <v>45092</v>
       </c>
-      <c r="F54" s="91">
-        <v>45093</v>
-      </c>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="F54" s="90">
+        <v>45104</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -6468,23 +6509,23 @@
     </row>
     <row r="55" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="90">
+      <c r="B55" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="89">
         <v>1</v>
       </c>
-      <c r="E55" s="91">
+      <c r="E55" s="90">
+        <v>45092</v>
+      </c>
+      <c r="F55" s="90">
         <v>45093</v>
       </c>
-      <c r="F55" s="91">
-        <v>45093</v>
-      </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -6544,23 +6585,23 @@
     </row>
     <row r="56" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
-      <c r="B56" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E56" s="91">
+      <c r="B56" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="89">
+        <v>1</v>
+      </c>
+      <c r="E56" s="90">
         <v>45093</v>
       </c>
-      <c r="F56" s="91">
-        <v>45096</v>
-      </c>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="F56" s="90">
+        <v>45093</v>
+      </c>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -6620,23 +6661,23 @@
     </row>
     <row r="57" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="92" t="s">
+      <c r="B57" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E57" s="91">
+      <c r="C57" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="89">
+        <v>1</v>
+      </c>
+      <c r="E57" s="90">
         <v>45093</v>
       </c>
-      <c r="F57" s="91">
+      <c r="F57" s="90">
         <v>45096</v>
       </c>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -6696,23 +6737,23 @@
     </row>
     <row r="58" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8"/>
-      <c r="B58" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E58" s="91">
-        <v>45097</v>
-      </c>
-      <c r="F58" s="91">
-        <v>45099</v>
-      </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="B58" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="89">
+        <v>1</v>
+      </c>
+      <c r="E58" s="90">
+        <v>45093</v>
+      </c>
+      <c r="F58" s="90">
+        <v>45096</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -6772,23 +6813,23 @@
     </row>
     <row r="59" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="92" t="s">
+      <c r="B59" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="90">
-        <v>0.8</v>
-      </c>
-      <c r="E59" s="91">
-        <v>45093</v>
-      </c>
-      <c r="F59" s="91">
-        <v>45100</v>
-      </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="C59" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="89">
+        <v>1</v>
+      </c>
+      <c r="E59" s="90">
+        <v>45097</v>
+      </c>
+      <c r="F59" s="90">
+        <v>45099</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -6848,23 +6889,23 @@
     </row>
     <row r="60" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="E60" s="91">
-        <v>45097</v>
-      </c>
-      <c r="F60" s="91">
+      <c r="B60" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="89">
+        <v>1</v>
+      </c>
+      <c r="E60" s="90">
+        <v>45093</v>
+      </c>
+      <c r="F60" s="90">
         <v>45100</v>
       </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -6923,105 +6964,181 @@
       <c r="BL60" s="5"/>
     </row>
     <row r="61" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="89">
+        <v>1</v>
+      </c>
+      <c r="E61" s="90">
+        <v>45097</v>
+      </c>
+      <c r="F61" s="90">
+        <v>45104</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5"/>
+      <c r="AS61" s="5"/>
+      <c r="AT61" s="5"/>
+      <c r="AU61" s="5"/>
+      <c r="AV61" s="5"/>
+      <c r="AW61" s="5"/>
+      <c r="AX61" s="5"/>
+      <c r="AY61" s="5"/>
+      <c r="AZ61" s="5"/>
+      <c r="BA61" s="5"/>
+      <c r="BB61" s="5"/>
+      <c r="BC61" s="5"/>
+      <c r="BD61" s="5"/>
+      <c r="BE61" s="5"/>
+      <c r="BF61" s="5"/>
+      <c r="BG61" s="5"/>
+      <c r="BH61" s="5"/>
+      <c r="BI61" s="5"/>
+      <c r="BJ61" s="5"/>
+      <c r="BK61" s="5"/>
+      <c r="BL61" s="5"/>
+    </row>
+    <row r="62" spans="1:64" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52" t="str">
+      <c r="B62" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="7"/>
-      <c r="AA61" s="7"/>
-      <c r="AB61" s="7"/>
-      <c r="AC61" s="7"/>
-      <c r="AD61" s="7"/>
-      <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
-      <c r="AG61" s="7"/>
-      <c r="AH61" s="7"/>
-      <c r="AI61" s="7"/>
-      <c r="AJ61" s="7"/>
-      <c r="AK61" s="7"/>
-      <c r="AL61" s="7"/>
-      <c r="AM61" s="7"/>
-      <c r="AN61" s="7"/>
-      <c r="AO61" s="7"/>
-      <c r="AP61" s="7"/>
-      <c r="AQ61" s="7"/>
-      <c r="AR61" s="7"/>
-      <c r="AS61" s="7"/>
-      <c r="AT61" s="7"/>
-      <c r="AU61" s="7"/>
-      <c r="AV61" s="7"/>
-      <c r="AW61" s="7"/>
-      <c r="AX61" s="7"/>
-      <c r="AY61" s="7"/>
-      <c r="AZ61" s="7"/>
-      <c r="BA61" s="7"/>
-      <c r="BB61" s="7"/>
-      <c r="BC61" s="7"/>
-      <c r="BD61" s="7"/>
-      <c r="BE61" s="7"/>
-      <c r="BF61" s="7"/>
-      <c r="BG61" s="7"/>
-      <c r="BH61" s="7"/>
-      <c r="BI61" s="7"/>
-      <c r="BJ61" s="7"/>
-      <c r="BK61" s="7"/>
-      <c r="BL61" s="7"/>
-    </row>
-    <row r="62" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G62" s="3"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+      <c r="AW62" s="7"/>
+      <c r="AX62" s="7"/>
+      <c r="AY62" s="7"/>
+      <c r="AZ62" s="7"/>
+      <c r="BA62" s="7"/>
+      <c r="BB62" s="7"/>
+      <c r="BC62" s="7"/>
+      <c r="BD62" s="7"/>
+      <c r="BE62" s="7"/>
+      <c r="BF62" s="7"/>
+      <c r="BG62" s="7"/>
+      <c r="BH62" s="7"/>
+      <c r="BI62" s="7"/>
+      <c r="BJ62" s="7"/>
+      <c r="BK62" s="7"/>
+      <c r="BL62" s="7"/>
     </row>
     <row r="63" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="53"/>
-      <c r="F63" s="54"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C64" s="55"/>
+      <c r="C64" s="52"/>
+      <c r="F64" s="53"/>
+    </row>
+    <row r="65" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <phoneticPr fontId="29"/>
-  <conditionalFormatting sqref="D7:D8 D51:D61 D37 D29">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="D7:D8 D52:D62 D38 D30">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7034,63 +7151,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL61">
-    <cfRule type="expression" dxfId="2" priority="43">
+  <conditionalFormatting sqref="I5:BL62">
+    <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL61">
-    <cfRule type="expression" dxfId="1" priority="37">
+  <conditionalFormatting sqref="I7:BL62">
+    <cfRule type="expression" dxfId="1" priority="42">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="43" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D50">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C257527E-7D38-4E5D-80D0-E9605BF25D80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D36">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0CE0120B-633D-4593-9995-6FB3C6038B6E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F456CFE-0334-4389-93D6-2CA3034C9FC7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7103,7 +7178,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D28">
+  <conditionalFormatting sqref="D18:D29">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D451799-C49D-4D1F-AD1E-825FE442C115}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D51">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7112,12 +7201,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{042AEC11-178D-45BB-A9C4-EC537ED769DB}</x14:id>
+          <x14:id>{7796DBAB-0B30-4ECC-8F52-355E7AB599E5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D14">
+  <conditionalFormatting sqref="D31:D34 D36:D37">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7126,12 +7215,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AAE4166E-82B4-4174-A647-3EEFFF8744B9}</x14:id>
+          <x14:id>{8FB678AC-8248-4D78-AF3E-5FDCA2970547}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D45">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7140,12 +7229,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2DE7F674-B42C-42D4-8FA8-DBB04B14DC93}</x14:id>
+          <x14:id>{B334EFA3-6E09-4827-B263-5E8419E09ADE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D33">
+  <conditionalFormatting sqref="D9:D16">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7154,7 +7243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8B03A825-1372-4A57-AD02-CBCD91A144AE}</x14:id>
+          <x14:id>{F1B044C6-D923-4314-9F26-6C2C46531014}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7175,7 +7264,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="60" max="16383" man="1"/>
+    <brk id="61" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -7193,52 +7282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D8 D51:D61 D37 D29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C257527E-7D38-4E5D-80D0-E9605BF25D80}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D46:D50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0CE0120B-633D-4593-9995-6FB3C6038B6E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D35:D36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F456CFE-0334-4389-93D6-2CA3034C9FC7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D34</xm:sqref>
+          <xm:sqref>D7:D8 D52:D62 D38 D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{14A0670C-A51C-4F32-AB4A-D8097C78202F}">
@@ -7253,10 +7297,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15</xm:sqref>
+          <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{042AEC11-178D-45BB-A9C4-EC537ED769DB}">
+          <x14:cfRule type="dataBar" id="{7D451799-C49D-4D1F-AD1E-825FE442C115}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7268,10 +7312,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D16:D28</xm:sqref>
+          <xm:sqref>D18:D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AAE4166E-82B4-4174-A647-3EEFFF8744B9}">
+          <x14:cfRule type="dataBar" id="{7796DBAB-0B30-4ECC-8F52-355E7AB599E5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7283,10 +7327,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D9:D14</xm:sqref>
+          <xm:sqref>D39:D51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2DE7F674-B42C-42D4-8FA8-DBB04B14DC93}">
+          <x14:cfRule type="dataBar" id="{8FB678AC-8248-4D78-AF3E-5FDCA2970547}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7298,10 +7342,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38:D45</xm:sqref>
+          <xm:sqref>D31:D34 D36:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8B03A825-1372-4A57-AD02-CBCD91A144AE}">
+          <x14:cfRule type="dataBar" id="{B334EFA3-6E09-4827-B263-5E8419E09ADE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7313,7 +7357,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D33</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F1B044C6-D923-4314-9F26-6C2C46531014}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D9:D16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7331,86 +7390,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="57"/>
+    <col min="1" max="1" width="87" style="55" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="59" customFormat="1" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:2" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:2" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="60"/>
+    </row>
+    <row r="4" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58"/>
-    </row>
-    <row r="3" spans="1:2" s="62" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="61"/>
-    </row>
-    <row r="4" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="63" t="s">
+    </row>
+    <row r="7" spans="1:2" s="55" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+    <row r="10" spans="1:2" s="55" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="56" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="63" t="s">
+    <row r="11" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
+    <row r="13" spans="1:2" s="55" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="66" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="63" t="s">
+    <row r="14" spans="1:2" s="63" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="56" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="64" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -7431,23 +7490,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7739,22 +7787,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7781,9 +7836,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>